--- a/CHR_US_V1_IL-18_MSD_Plates1-6_Data_NO__SKS_3-15-2022.xlsx
+++ b/CHR_US_V1_IL-18_MSD_Plates1-6_Data_NO__SKS_3-15-2022.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415557A-67E3-4EFC-8E38-A447B93048E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BA5164-CFA0-43D7-B792-583BB7CC0DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="216">
   <si>
     <t>Plate Name</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>IL-18 (pg/mL)</t>
+  </si>
+  <si>
+    <t>Average Sample Intraplate CV</t>
   </si>
 </sst>
 </file>
@@ -55984,17 +55987,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F5012-95AD-40F4-A324-5CBC0E4D6B46}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -56978,6 +56981,16 @@
         <v>1.9055534548377093</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="88"/>
+      <c r="D70" s="100">
+        <f>AVERAGE(D2,D13,D24,D36,D47,D58)</f>
+        <v>2.8307814293644888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56988,7 +57001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4A07F0-0B21-4A6E-91C2-BAA7E3927BA8}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
